--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff70e987872feeb/Desktop/School/Yr4Sem2/ZEIT4154 Deep Learning/Assignments/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="8_{5EE4BDA3-FCE5-45F0-BFF3-6DCA481D602D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10413413-C919-47F1-9F6F-22772D3FD9C4}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="8_{5EE4BDA3-FCE5-45F0-BFF3-6DCA481D602D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F081C8-C30E-48CE-B3BA-586A4314286E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="45">
   <si>
     <t>experiment</t>
   </si>
@@ -4273,6 +4273,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4536,10 +4540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5342,6 +5346,84 @@
       </c>
       <c r="H42">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>128</v>
+      </c>
+      <c r="D43">
+        <v>1E-3</v>
+      </c>
+      <c r="E43">
+        <v>0.9</v>
+      </c>
+      <c r="F43">
+        <v>0.5</v>
+      </c>
+      <c r="G43">
+        <v>1E-4</v>
+      </c>
+      <c r="H43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>128</v>
+      </c>
+      <c r="D44">
+        <v>1E-4</v>
+      </c>
+      <c r="E44">
+        <v>0.9</v>
+      </c>
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+      <c r="G44">
+        <v>1E-4</v>
+      </c>
+      <c r="H44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>128</v>
+      </c>
+      <c r="D45">
+        <v>1E-4</v>
+      </c>
+      <c r="E45">
+        <v>0.9</v>
+      </c>
+      <c r="F45">
+        <v>0.3</v>
+      </c>
+      <c r="G45">
+        <v>1E-4</v>
+      </c>
+      <c r="H45">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
